--- a/WashingtonDC_Daily_Crime.xlsx
+++ b/WashingtonDC_Daily_Crime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owner/Desktop/git/Project_1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{777DEEBC-05D4-734A-9664-99DDEB46EF76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF53A57-F5D8-224B-866E-39F637E2A389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="460" windowWidth="27640" windowHeight="16100" xr2:uid="{27623AEE-EF55-F84D-A351-9B7DA6142639}"/>
+    <workbookView xWindow="12480" yWindow="460" windowWidth="22640" windowHeight="16100" xr2:uid="{27623AEE-EF55-F84D-A351-9B7DA6142639}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="9">
   <si>
     <t>Non-Violent</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0AE85D0-BCD7-CC41-AB95-D0ED21307919}">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:H123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A123"/>
@@ -424,2840 +430,3210 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="24" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="24" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
         <v>43891</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>74</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
       <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
         <v>43892</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>166</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>92</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>1.2432432432432432</v>
       </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
       <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
         <v>43893</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>231</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>65</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>0.39156626506024095</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>-0.625</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
         <v>43894</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>300</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>69</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>0.29870129870129869</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>12</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>9</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
         <v>43895</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>370</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>70</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>0.23333333333333334</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>30</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>18</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
         <v>43896</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>444</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>74</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>0.2</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-18</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
         <v>43897</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>553</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>109</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>0.24549549549549549</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>35</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>23</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>1.9166666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>43898</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>400</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-153</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>-0.27667269439421338</v>
       </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
       <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
         <v>-27</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>-0.77142857142857146</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
         <v>43899</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>837</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>437</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>1.0925</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>54</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>46</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>5.75</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
         <v>43900</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>810</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-27</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>-3.2258064516129031E-2</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>70</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>16</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>0.29629629629629628</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
         <v>43901</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>1001</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>191</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>0.23580246913580247</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>22</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-48</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>-0.68571428571428572</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
         <v>43902</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>900</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-101</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>-0.1008991008991009</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>36</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>14</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
         <v>43903</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>975</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>75</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>52</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>16</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
         <v>43904</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>1442</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>467</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>0.47897435897435897</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>70</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>18</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
         <v>43905</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>1170</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-272</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>-0.18862690707350901</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>45</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-25</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>-0.35714285714285715</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
         <v>43906</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>1232</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>62</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>5.2991452991452991E-2</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>64</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>19</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>0.42222222222222222</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
         <v>43907</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>1037</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-195</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>-0.15827922077922077</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>34</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>-30</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>-0.46875</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1">
         <v>43908</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>1152</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>115</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>0.11089681774349083</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>126</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>92</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>2.7058823529411766</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
         <v>43909</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>779</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-373</v>
       </c>
-      <c r="D20" s="2">
+      <c r="E20" s="2">
         <v>-0.32378472222222221</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>76</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-50</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>-0.3968253968253968</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
         <v>43910</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>1120</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>341</v>
       </c>
-      <c r="D21" s="2">
+      <c r="E21" s="2">
         <v>0.43774069319640563</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>100</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>24</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>0.31578947368421051</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1">
         <v>43911</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>714</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-406</v>
       </c>
-      <c r="D22" s="2">
+      <c r="E22" s="2">
         <v>-0.36249999999999999</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>210</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>110</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
         <v>43912</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>968</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>254</v>
       </c>
-      <c r="D23" s="2">
+      <c r="E23" s="2">
         <v>0.35574229691876752</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>66</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-144</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>-0.68571428571428572</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
         <v>43913</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>1150</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>182</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>0.18801652892561985</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>138</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>72</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>1.0909090909090908</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1">
         <v>43914</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>1392</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>242</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>0.21043478260869566</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>192</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>54</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>0.39130434782608697</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1">
         <v>43915</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>1425</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>33</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>2.3706896551724137E-2</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>125</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-67</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>-0.34895833333333331</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1">
         <v>43916</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>1508</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>83</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>5.8245614035087719E-2</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>182</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>57</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>0.45600000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1">
         <v>43917</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>1215</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-293</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>-0.1942970822281167</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>162</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-20</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>-0.10989010989010989</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1">
         <v>43918</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>1008</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-207</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>-0.17037037037037037</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>84</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>-78</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>-0.48148148148148145</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
         <v>43919</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>1624</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>616</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>0.61111111111111116</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>58</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-26</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>-0.30952380952380953</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1">
         <v>43920</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>1980</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>356</v>
       </c>
-      <c r="D31" s="2">
+      <c r="E31" s="2">
         <v>0.21921182266009853</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>90</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>32</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>0.55172413793103448</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1">
         <v>43921</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>1891</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-89</v>
       </c>
-      <c r="D32" s="2">
+      <c r="E32" s="2">
         <v>-4.4949494949494948E-2</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>93</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>3</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1">
         <v>43922</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>44</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-1847</v>
       </c>
-      <c r="D33" s="2">
+      <c r="E33" s="2">
         <v>-0.97673188789000531</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>3</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-90</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>-0.967741935483871</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1">
         <v>43923</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>78</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>34</v>
       </c>
-      <c r="D34" s="2">
+      <c r="E34" s="2">
         <v>0.77272727272727271</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>4</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>1</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1">
         <v>43924</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>120</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>42</v>
       </c>
-      <c r="D35" s="2">
+      <c r="E35" s="2">
         <v>0.53846153846153844</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>6</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>2</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1">
         <v>43925</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>184</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>64</v>
       </c>
-      <c r="D36" s="2">
+      <c r="E36" s="2">
         <v>0.53333333333333333</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>28</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>22</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1">
         <v>43926</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>210</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>26</v>
       </c>
-      <c r="D37" s="2">
+      <c r="E37" s="2">
         <v>0.14130434782608695</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>10</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>-18</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>-0.6428571428571429</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1">
         <v>43927</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>348</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>138</v>
       </c>
-      <c r="D38" s="2">
+      <c r="E38" s="2">
         <v>0.65714285714285714</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>36</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>26</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
         <v>43928</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>399</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>51</v>
       </c>
-      <c r="D39" s="2">
+      <c r="E39" s="2">
         <v>0.14655172413793102</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>21</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>-15</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>-0.41666666666666669</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1">
         <v>43929</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>376</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>-23</v>
       </c>
-      <c r="D40" s="2">
+      <c r="E40" s="2">
         <v>-5.764411027568922E-2</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>24</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>3</v>
       </c>
-      <c r="G40" s="2">
+      <c r="H40" s="2">
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1">
         <v>43930</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>405</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>29</v>
       </c>
-      <c r="D41" s="2">
+      <c r="E41" s="2">
         <v>7.7127659574468085E-2</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>36</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>12</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="1">
         <v>43931</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>420</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>15</v>
       </c>
-      <c r="D42" s="2">
+      <c r="E42" s="2">
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>90</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>54</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1">
         <v>43932</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>561</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>141</v>
       </c>
-      <c r="D43" s="2">
+      <c r="E43" s="2">
         <v>0.33571428571428569</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>11</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>-79</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <v>-0.87777777777777777</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="1">
         <v>43933</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>504</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>-57</v>
       </c>
-      <c r="D44" s="2">
+      <c r="E44" s="2">
         <v>-0.10160427807486631</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>84</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>73</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>6.6363636363636367</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="1">
         <v>43934</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>546</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>42</v>
       </c>
-      <c r="D45" s="2">
+      <c r="E45" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>65</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>-19</v>
       </c>
-      <c r="G45" s="2">
+      <c r="H45" s="2">
         <v>-0.22619047619047619</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="1">
         <v>43935</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>854</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>308</v>
       </c>
-      <c r="D46" s="2">
+      <c r="E46" s="2">
         <v>0.5641025641025641</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>70</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>5</v>
       </c>
-      <c r="G46" s="2">
+      <c r="H46" s="2">
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="1">
         <v>43936</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>705</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>-149</v>
       </c>
-      <c r="D47" s="2">
+      <c r="E47" s="2">
         <v>-0.17447306791569087</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>45</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>-25</v>
       </c>
-      <c r="G47" s="2">
+      <c r="H47" s="2">
         <v>-0.35714285714285715</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1">
         <v>43937</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>912</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>207</v>
       </c>
-      <c r="D48" s="2">
+      <c r="E48" s="2">
         <v>0.29361702127659572</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>64</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>19</v>
       </c>
-      <c r="G48" s="2">
+      <c r="H48" s="2">
         <v>0.42222222222222222</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="1">
         <v>43938</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>782</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>-130</v>
       </c>
-      <c r="D49" s="2">
+      <c r="E49" s="2">
         <v>-0.14254385964912281</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>17</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>-47</v>
       </c>
-      <c r="G49" s="2">
+      <c r="H49" s="2">
         <v>-0.734375</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="1">
         <v>43939</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>468</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>-314</v>
       </c>
-      <c r="D50" s="2">
+      <c r="E50" s="2">
         <v>-0.40153452685421998</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>0</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>-17</v>
       </c>
-      <c r="G50" s="2">
+      <c r="H50" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="1">
         <v>43940</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>1026</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>558</v>
       </c>
-      <c r="D51" s="2">
+      <c r="E51" s="2">
         <v>1.1923076923076923</v>
-      </c>
-      <c r="E51">
-        <v>114</v>
       </c>
       <c r="F51">
         <v>114</v>
       </c>
-      <c r="G51" s="2" t="e">
+      <c r="G51">
+        <v>114</v>
+      </c>
+      <c r="H51" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1">
         <v>43941</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>880</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>-146</v>
       </c>
-      <c r="D52" s="2">
+      <c r="E52" s="2">
         <v>-0.14230019493177387</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>120</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>6</v>
       </c>
-      <c r="G52" s="2">
+      <c r="H52" s="2">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="1">
         <v>43942</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>1134</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>254</v>
       </c>
-      <c r="D53" s="2">
+      <c r="E53" s="2">
         <v>0.28863636363636364</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>84</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>-36</v>
       </c>
-      <c r="G53" s="2">
+      <c r="H53" s="2">
         <v>-0.3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1">
         <v>43943</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>1584</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>450</v>
       </c>
-      <c r="D54" s="2">
+      <c r="E54" s="2">
         <v>0.3968253968253968</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>198</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>114</v>
       </c>
-      <c r="G54" s="2">
+      <c r="H54" s="2">
         <v>1.3571428571428572</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="1">
         <v>43944</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>1633</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>49</v>
       </c>
-      <c r="D55" s="2">
+      <c r="E55" s="2">
         <v>3.0934343434343436E-2</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>0</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>-198</v>
       </c>
-      <c r="G55" s="2">
+      <c r="H55" s="2">
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="1">
         <v>43945</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>1536</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>-97</v>
       </c>
-      <c r="D56" s="2">
+      <c r="E56" s="2">
         <v>-5.939987752602572E-2</v>
-      </c>
-      <c r="E56">
-        <v>96</v>
       </c>
       <c r="F56">
         <v>96</v>
       </c>
-      <c r="G56" s="2" t="e">
+      <c r="G56">
+        <v>96</v>
+      </c>
+      <c r="H56" s="2" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="1">
         <v>43946</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>1275</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>-261</v>
       </c>
-      <c r="D57" s="2">
+      <c r="E57" s="2">
         <v>-0.169921875</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>125</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>29</v>
       </c>
-      <c r="G57" s="2">
+      <c r="H57" s="2">
         <v>0.30208333333333331</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1">
         <v>43947</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>884</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>-391</v>
       </c>
-      <c r="D58" s="2">
+      <c r="E58" s="2">
         <v>-0.30666666666666664</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>52</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>-73</v>
       </c>
-      <c r="G58" s="2">
+      <c r="H58" s="2">
         <v>-0.58399999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="1">
         <v>43948</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>1620</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>736</v>
       </c>
-      <c r="D59" s="2">
+      <c r="E59" s="2">
         <v>0.83257918552036203</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>54</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>2</v>
       </c>
-      <c r="G59" s="2">
+      <c r="H59" s="2">
         <v>3.8461538461538464E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="1">
         <v>43949</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>2100</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>480</v>
       </c>
-      <c r="D60" s="2">
+      <c r="E60" s="2">
         <v>0.29629629629629628</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>84</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>30</v>
       </c>
-      <c r="G60" s="2">
+      <c r="H60" s="2">
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="1">
         <v>43950</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>1479</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>-621</v>
       </c>
-      <c r="D61" s="2">
+      <c r="E61" s="2">
         <v>-0.29571428571428571</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>348</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>264</v>
       </c>
-      <c r="G61" s="2">
+      <c r="H61" s="2">
         <v>3.1428571428571428</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1">
         <v>43951</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>1650</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>171</v>
       </c>
-      <c r="D62" s="2">
+      <c r="E62" s="2">
         <v>0.11561866125760649</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>120</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>-228</v>
       </c>
-      <c r="G62" s="2">
+      <c r="H62" s="2">
         <v>-0.65517241379310343</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="1">
         <v>43952</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>51</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>-1599</v>
       </c>
-      <c r="D63" s="2">
+      <c r="E63" s="2">
         <v>-0.96909090909090911</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>3</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>-117</v>
       </c>
-      <c r="G63" s="2">
+      <c r="H63" s="2">
         <v>-0.97499999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="1">
         <v>43953</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>66</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>15</v>
       </c>
-      <c r="D64" s="2">
+      <c r="E64" s="2">
         <v>0.29411764705882354</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>12</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>9</v>
       </c>
-      <c r="G64" s="2">
+      <c r="H64" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="1">
         <v>43954</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>99</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>33</v>
       </c>
-      <c r="D65" s="2">
+      <c r="E65" s="2">
         <v>0.5</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>18</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>6</v>
       </c>
-      <c r="G65" s="2">
+      <c r="H65" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="1">
         <v>43955</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>256</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>157</v>
       </c>
-      <c r="D66" s="2">
+      <c r="E66" s="2">
         <v>1.5858585858585859</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>16</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>-2</v>
       </c>
-      <c r="G66" s="2">
+      <c r="H66" s="2">
         <v>-0.1111111111111111</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="1">
         <v>43956</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>315</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>59</v>
       </c>
-      <c r="D67" s="2">
+      <c r="E67" s="2">
         <v>0.23046875</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>35</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>19</v>
       </c>
-      <c r="G67" s="2">
+      <c r="H67" s="2">
         <v>1.1875</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1">
         <v>43957</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>324</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>9</v>
       </c>
-      <c r="D68" s="2">
+      <c r="E68" s="2">
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>18</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>-17</v>
       </c>
-      <c r="G68" s="2">
+      <c r="H68" s="2">
         <v>-0.48571428571428571</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="1">
         <v>43958</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>266</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>-58</v>
       </c>
-      <c r="D69" s="2">
+      <c r="E69" s="2">
         <v>-0.17901234567901234</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>49</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>31</v>
       </c>
-      <c r="G69" s="2">
+      <c r="H69" s="2">
         <v>1.7222222222222223</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="1">
         <v>43959</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>440</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>174</v>
       </c>
-      <c r="D70" s="2">
+      <c r="E70" s="2">
         <v>0.65413533834586468</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>56</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>7</v>
       </c>
-      <c r="G70" s="2">
+      <c r="H70" s="2">
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="1">
         <v>43960</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>333</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>-107</v>
       </c>
-      <c r="D71" s="2">
+      <c r="E71" s="2">
         <v>-0.24318181818181819</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>54</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>-2</v>
       </c>
-      <c r="G71" s="2">
+      <c r="H71" s="2">
         <v>-3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1">
         <v>43961</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>590</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>257</v>
       </c>
-      <c r="D72" s="2">
+      <c r="E72" s="2">
         <v>0.77177177177177181</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>50</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>-4</v>
       </c>
-      <c r="G72" s="2">
+      <c r="H72" s="2">
         <v>-7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
         <v>43962</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>583</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>-7</v>
       </c>
-      <c r="D73" s="2">
+      <c r="E73" s="2">
         <v>-1.1864406779661017E-2</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>55</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>5</v>
       </c>
-      <c r="G73" s="2">
+      <c r="H73" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="1">
         <v>43963</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>432</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>-151</v>
       </c>
-      <c r="D74" s="2">
+      <c r="E74" s="2">
         <v>-0.25900514579759865</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>60</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>5</v>
       </c>
-      <c r="G74" s="2">
+      <c r="H74" s="2">
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="1">
         <v>43964</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>598</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>166</v>
       </c>
-      <c r="D75" s="2">
+      <c r="E75" s="2">
         <v>0.38425925925925924</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>117</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>57</v>
       </c>
-      <c r="G75" s="2">
+      <c r="H75" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="1">
         <v>43965</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>644</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>46</v>
       </c>
-      <c r="D76" s="2">
+      <c r="E76" s="2">
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>98</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>-19</v>
       </c>
-      <c r="G76" s="2">
+      <c r="H76" s="2">
         <v>-0.1623931623931624</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1">
         <v>43966</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>750</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>106</v>
       </c>
-      <c r="D77" s="2">
+      <c r="E77" s="2">
         <v>0.16459627329192547</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>45</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>-53</v>
       </c>
-      <c r="G77" s="2">
+      <c r="H77" s="2">
         <v>-0.54081632653061229</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="1">
         <v>43967</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>784</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>34</v>
       </c>
-      <c r="D78" s="2">
+      <c r="E78" s="2">
         <v>4.5333333333333337E-2</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>96</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>51</v>
       </c>
-      <c r="G78" s="2">
+      <c r="H78" s="2">
         <v>1.1333333333333333</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="1">
         <v>43968</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>833</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>49</v>
       </c>
-      <c r="D79" s="2">
+      <c r="E79" s="2">
         <v>6.25E-2</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>51</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>-45</v>
       </c>
-      <c r="G79" s="2">
+      <c r="H79" s="2">
         <v>-0.46875</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="1">
         <v>43969</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>1098</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>265</v>
       </c>
-      <c r="D80" s="2">
+      <c r="E80" s="2">
         <v>0.31812725090036015</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>108</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>57</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>1.1176470588235294</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
         <v>43970</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>1178</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>80</v>
       </c>
-      <c r="D81" s="2">
+      <c r="E81" s="2">
         <v>7.2859744990892539E-2</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>114</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>6</v>
       </c>
-      <c r="G81" s="2">
+      <c r="H81" s="2">
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1">
         <v>43971</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>1600</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>422</v>
       </c>
-      <c r="D82" s="2">
+      <c r="E82" s="2">
         <v>0.35823429541595925</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>100</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>-14</v>
       </c>
-      <c r="G82" s="2">
+      <c r="H82" s="2">
         <v>-0.12280701754385964</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="1">
         <v>43972</v>
       </c>
-      <c r="B83">
+      <c r="C83">
         <v>1260</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>-340</v>
       </c>
-      <c r="D83" s="2">
+      <c r="E83" s="2">
         <v>-0.21249999999999999</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>126</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>26</v>
       </c>
-      <c r="G83" s="2">
+      <c r="H83" s="2">
         <v>0.26</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="1">
         <v>43973</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>1276</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>16</v>
       </c>
-      <c r="D84" s="2">
+      <c r="E84" s="2">
         <v>1.2698412698412698E-2</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>110</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>-16</v>
       </c>
-      <c r="G84" s="2">
+      <c r="H84" s="2">
         <v>-0.12698412698412698</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="1">
         <v>43974</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>1150</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>-126</v>
       </c>
-      <c r="D85" s="2">
+      <c r="E85" s="2">
         <v>-9.8746081504702196E-2</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>230</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>120</v>
       </c>
-      <c r="G85" s="2">
+      <c r="H85" s="2">
         <v>1.0909090909090908</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="1">
         <v>43975</v>
       </c>
-      <c r="B86">
+      <c r="C86">
         <v>936</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>-214</v>
       </c>
-      <c r="D86" s="2">
+      <c r="E86" s="2">
         <v>-0.18608695652173912</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>192</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>-38</v>
       </c>
-      <c r="G86" s="2">
+      <c r="H86" s="2">
         <v>-0.16521739130434782</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="1">
         <v>43976</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>1200</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>264</v>
       </c>
-      <c r="D87" s="2">
+      <c r="E87" s="2">
         <v>0.28205128205128205</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>75</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>-117</v>
       </c>
-      <c r="G87" s="2">
+      <c r="H87" s="2">
         <v>-0.609375</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="1">
         <v>43977</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>1612</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>412</v>
       </c>
-      <c r="D88" s="2">
+      <c r="E88" s="2">
         <v>0.34333333333333332</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>182</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>107</v>
       </c>
-      <c r="G88" s="2">
+      <c r="H88" s="2">
         <v>1.4266666666666667</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
         <v>43978</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>1836</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>224</v>
       </c>
-      <c r="D89" s="2">
+      <c r="E89" s="2">
         <v>0.13895781637717122</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>243</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>61</v>
       </c>
-      <c r="G89" s="2">
+      <c r="H89" s="2">
         <v>0.33516483516483514</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="1">
         <v>43979</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>1624</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>-212</v>
       </c>
-      <c r="D90" s="2">
+      <c r="E90" s="2">
         <v>-0.11546840958605664</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>252</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>9</v>
       </c>
-      <c r="G90" s="2">
+      <c r="H90" s="2">
         <v>3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
         <v>43980</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>1827</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>203</v>
       </c>
-      <c r="D91" s="2">
+      <c r="E91" s="2">
         <v>0.125</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>261</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>9</v>
       </c>
-      <c r="G91" s="2">
+      <c r="H91" s="2">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1">
         <v>43981</v>
       </c>
-      <c r="B92">
+      <c r="C92">
         <v>930</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>-897</v>
       </c>
-      <c r="D92" s="2">
+      <c r="E92" s="2">
         <v>-0.49096880131362891</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>360</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>99</v>
       </c>
-      <c r="G92" s="2">
+      <c r="H92" s="2">
         <v>0.37931034482758619</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
         <v>43982</v>
       </c>
-      <c r="B93">
+      <c r="C93">
         <v>2883</v>
       </c>
-      <c r="C93">
+      <c r="D93">
         <v>1953</v>
       </c>
-      <c r="D93" s="2">
+      <c r="E93" s="2">
         <v>2.1</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>248</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>-112</v>
       </c>
-      <c r="G93" s="2">
+      <c r="H93" s="2">
         <v>-0.31111111111111112</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="1">
         <v>43983</v>
       </c>
-      <c r="B94">
+      <c r="C94">
         <v>178</v>
       </c>
-      <c r="C94">
+      <c r="D94">
         <v>-2705</v>
       </c>
-      <c r="D94" s="2">
+      <c r="E94" s="2">
         <v>-0.93825875823794658</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>3</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>-245</v>
       </c>
-      <c r="G94" s="2">
+      <c r="H94" s="2">
         <v>-0.98790322580645162</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="1">
         <v>43984</v>
       </c>
-      <c r="B95">
+      <c r="C95">
         <v>218</v>
       </c>
-      <c r="C95">
+      <c r="D95">
         <v>40</v>
       </c>
-      <c r="D95" s="2">
+      <c r="E95" s="2">
         <v>0.2247191011235955</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>20</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>17</v>
       </c>
-      <c r="G95" s="2">
+      <c r="H95" s="2">
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="1">
         <v>43985</v>
       </c>
-      <c r="B96">
+      <c r="C96">
         <v>210</v>
       </c>
-      <c r="C96">
+      <c r="D96">
         <v>-8</v>
       </c>
-      <c r="D96" s="2">
+      <c r="E96" s="2">
         <v>-3.669724770642202E-2</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>27</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>7</v>
       </c>
-      <c r="G96" s="2">
+      <c r="H96" s="2">
         <v>0.35</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="1">
         <v>43986</v>
       </c>
-      <c r="B97">
+      <c r="C97">
         <v>356</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>146</v>
       </c>
-      <c r="D97" s="2">
+      <c r="E97" s="2">
         <v>0.69523809523809521</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>4</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>-23</v>
       </c>
-      <c r="G97" s="2">
+      <c r="H97" s="2">
         <v>-0.85185185185185186</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
         <v>43987</v>
       </c>
-      <c r="B98">
+      <c r="C98">
         <v>305</v>
       </c>
-      <c r="C98">
+      <c r="D98">
         <v>-51</v>
       </c>
-      <c r="D98" s="2">
+      <c r="E98" s="2">
         <v>-0.14325842696629212</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>20</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>16</v>
       </c>
-      <c r="G98" s="2">
+      <c r="H98" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
         <v>43988</v>
       </c>
-      <c r="B99">
+      <c r="C99">
         <v>270</v>
       </c>
-      <c r="C99">
+      <c r="D99">
         <v>-35</v>
       </c>
-      <c r="D99" s="2">
+      <c r="E99" s="2">
         <v>-0.11475409836065574</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>30</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>10</v>
       </c>
-      <c r="G99" s="2">
+      <c r="H99" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
         <v>43989</v>
       </c>
-      <c r="B100">
+      <c r="C100">
         <v>399</v>
       </c>
-      <c r="C100">
+      <c r="D100">
         <v>129</v>
       </c>
-      <c r="D100" s="2">
+      <c r="E100" s="2">
         <v>0.4777777777777778</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>84</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>54</v>
       </c>
-      <c r="G100" s="2">
+      <c r="H100" s="2">
         <v>1.8</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
         <v>43990</v>
       </c>
-      <c r="B101">
+      <c r="C101">
         <v>624</v>
       </c>
-      <c r="C101">
+      <c r="D101">
         <v>225</v>
       </c>
-      <c r="D101" s="2">
+      <c r="E101" s="2">
         <v>0.56390977443609025</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>64</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>-20</v>
       </c>
-      <c r="G101" s="2">
+      <c r="H101" s="2">
         <v>-0.23809523809523808</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1">
         <v>43991</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>612</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>-12</v>
       </c>
-      <c r="D102" s="2">
+      <c r="E102" s="2">
         <v>-1.9230769230769232E-2</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>117</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>53</v>
       </c>
-      <c r="G102" s="2">
+      <c r="H102" s="2">
         <v>0.828125</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="1">
         <v>43992</v>
       </c>
-      <c r="B103">
+      <c r="C103">
         <v>870</v>
       </c>
-      <c r="C103">
+      <c r="D103">
         <v>258</v>
       </c>
-      <c r="D103" s="2">
+      <c r="E103" s="2">
         <v>0.42156862745098039</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>40</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>-77</v>
       </c>
-      <c r="G103" s="2">
+      <c r="H103" s="2">
         <v>-0.65811965811965811</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="1">
         <v>43993</v>
       </c>
-      <c r="B104">
+      <c r="C104">
         <v>814</v>
       </c>
-      <c r="C104">
+      <c r="D104">
         <v>-56</v>
       </c>
-      <c r="D104" s="2">
+      <c r="E104" s="2">
         <v>-6.4367816091954022E-2</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>88</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>48</v>
       </c>
-      <c r="G104" s="2">
+      <c r="H104" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="1">
         <v>43994</v>
       </c>
-      <c r="B105">
+      <c r="C105">
         <v>660</v>
       </c>
-      <c r="C105">
+      <c r="D105">
         <v>-154</v>
       </c>
-      <c r="D105" s="2">
+      <c r="E105" s="2">
         <v>-0.1891891891891892</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>72</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>-16</v>
       </c>
-      <c r="G105" s="2">
+      <c r="H105" s="2">
         <v>-0.18181818181818182</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="1">
         <v>43995</v>
       </c>
-      <c r="B106">
+      <c r="C106">
         <v>598</v>
       </c>
-      <c r="C106">
+      <c r="D106">
         <v>-62</v>
       </c>
-      <c r="D106" s="2">
+      <c r="E106" s="2">
         <v>-9.3939393939393934E-2</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>78</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>6</v>
       </c>
-      <c r="G106" s="2">
+      <c r="H106" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
         <v>43996</v>
       </c>
-      <c r="B107">
+      <c r="C107">
         <v>1036</v>
       </c>
-      <c r="C107">
+      <c r="D107">
         <v>438</v>
       </c>
-      <c r="D107" s="2">
+      <c r="E107" s="2">
         <v>0.73244147157190631</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>84</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>6</v>
       </c>
-      <c r="G107" s="2">
+      <c r="H107" s="2">
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="1">
         <v>43997</v>
       </c>
-      <c r="B108">
+      <c r="C108">
         <v>1110</v>
       </c>
-      <c r="C108">
+      <c r="D108">
         <v>74</v>
       </c>
-      <c r="D108" s="2">
+      <c r="E108" s="2">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>60</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>-24</v>
       </c>
-      <c r="G108" s="2">
+      <c r="H108" s="2">
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="1">
         <v>43998</v>
       </c>
-      <c r="B109">
+      <c r="C109">
         <v>1296</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>186</v>
       </c>
-      <c r="D109" s="2">
+      <c r="E109" s="2">
         <v>0.16756756756756758</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>80</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>20</v>
       </c>
-      <c r="G109" s="2">
+      <c r="H109" s="2">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
         <v>43999</v>
       </c>
-      <c r="B110">
+      <c r="C110">
         <v>867</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>-429</v>
       </c>
-      <c r="D110" s="2">
+      <c r="E110" s="2">
         <v>-0.33101851851851855</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>102</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>22</v>
       </c>
-      <c r="G110" s="2">
+      <c r="H110" s="2">
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="1">
         <v>44000</v>
       </c>
-      <c r="B111">
+      <c r="C111">
         <v>954</v>
       </c>
-      <c r="C111">
+      <c r="D111">
         <v>87</v>
       </c>
-      <c r="D111" s="2">
+      <c r="E111" s="2">
         <v>0.10034602076124567</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>36</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>-66</v>
       </c>
-      <c r="G111" s="2">
+      <c r="H111" s="2">
         <v>-0.6470588235294118</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1">
         <v>44001</v>
       </c>
-      <c r="B112">
+      <c r="C112">
         <v>779</v>
       </c>
-      <c r="C112">
+      <c r="D112">
         <v>-175</v>
       </c>
-      <c r="D112" s="2">
+      <c r="E112" s="2">
         <v>-0.18343815513626835</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>76</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>40</v>
       </c>
-      <c r="G112" s="2">
+      <c r="H112" s="2">
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="1">
         <v>44002</v>
       </c>
-      <c r="B113">
+      <c r="C113">
         <v>1060</v>
       </c>
-      <c r="C113">
+      <c r="D113">
         <v>281</v>
       </c>
-      <c r="D113" s="2">
+      <c r="E113" s="2">
         <v>0.36071887034659822</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>80</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>4</v>
       </c>
-      <c r="G113" s="2">
+      <c r="H113" s="2">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="1">
         <v>44003</v>
       </c>
-      <c r="B114">
+      <c r="C114">
         <v>1281</v>
       </c>
-      <c r="C114">
+      <c r="D114">
         <v>221</v>
       </c>
-      <c r="D114" s="2">
+      <c r="E114" s="2">
         <v>0.20849056603773586</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>105</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>25</v>
       </c>
-      <c r="G114" s="2">
+      <c r="H114" s="2">
         <v>0.3125</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="1">
         <v>44004</v>
       </c>
-      <c r="B115">
+      <c r="C115">
         <v>1430</v>
       </c>
-      <c r="C115">
+      <c r="D115">
         <v>149</v>
       </c>
-      <c r="D115" s="2">
+      <c r="E115" s="2">
         <v>0.11631537861046058</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>176</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>71</v>
       </c>
-      <c r="G115" s="2">
+      <c r="H115" s="2">
         <v>0.67619047619047623</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="1">
         <v>44005</v>
       </c>
-      <c r="B116">
+      <c r="C116">
         <v>1771</v>
       </c>
-      <c r="C116">
+      <c r="D116">
         <v>341</v>
       </c>
-      <c r="D116" s="2">
+      <c r="E116" s="2">
         <v>0.23846153846153847</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>69</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>-107</v>
       </c>
-      <c r="G116" s="2">
+      <c r="H116" s="2">
         <v>-0.60795454545454541</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="1">
         <v>44006</v>
       </c>
-      <c r="B117">
+      <c r="C117">
         <v>1632</v>
       </c>
-      <c r="C117">
+      <c r="D117">
         <v>-139</v>
       </c>
-      <c r="D117" s="2">
+      <c r="E117" s="2">
         <v>-7.8486730660643711E-2</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>96</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>27</v>
       </c>
-      <c r="G117" s="2">
+      <c r="H117" s="2">
         <v>0.39130434782608697</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="1">
         <v>44007</v>
       </c>
-      <c r="B118">
+      <c r="C118">
         <v>1700</v>
       </c>
-      <c r="C118">
+      <c r="D118">
         <v>68</v>
       </c>
-      <c r="D118" s="2">
+      <c r="E118" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>225</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>129</v>
       </c>
-      <c r="G118" s="2">
+      <c r="H118" s="2">
         <v>1.34375</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1">
         <v>44008</v>
       </c>
-      <c r="B119">
+      <c r="C119">
         <v>1040</v>
       </c>
-      <c r="C119">
+      <c r="D119">
         <v>-660</v>
       </c>
-      <c r="D119" s="2">
+      <c r="E119" s="2">
         <v>-0.38823529411764707</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>182</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>-43</v>
       </c>
-      <c r="G119" s="2">
+      <c r="H119" s="2">
         <v>-0.19111111111111112</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" s="1">
         <v>44009</v>
       </c>
-      <c r="B120">
+      <c r="C120">
         <v>1323</v>
       </c>
-      <c r="C120">
+      <c r="D120">
         <v>283</v>
       </c>
-      <c r="D120" s="2">
+      <c r="E120" s="2">
         <v>0.27211538461538459</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>216</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>34</v>
       </c>
-      <c r="G120" s="2">
+      <c r="H120" s="2">
         <v>0.18681318681318682</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="1">
         <v>44010</v>
       </c>
-      <c r="B121">
+      <c r="C121">
         <v>1932</v>
       </c>
-      <c r="C121">
+      <c r="D121">
         <v>609</v>
       </c>
-      <c r="D121" s="2">
+      <c r="E121" s="2">
         <v>0.46031746031746029</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>168</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>-48</v>
       </c>
-      <c r="G121" s="2">
+      <c r="H121" s="2">
         <v>-0.22222222222222221</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1">
         <v>44011</v>
       </c>
-      <c r="B122">
+      <c r="C122">
         <v>1798</v>
       </c>
-      <c r="C122">
+      <c r="D122">
         <v>-134</v>
       </c>
-      <c r="D122" s="2">
+      <c r="E122" s="2">
         <v>-6.9358178053830224E-2</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>348</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>180</v>
       </c>
-      <c r="G122" s="2">
+      <c r="H122" s="2">
         <v>1.0714285714285714</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1">
         <v>44012</v>
       </c>
-      <c r="B123">
+      <c r="C123">
         <v>2220</v>
       </c>
-      <c r="C123">
+      <c r="D123">
         <v>422</v>
       </c>
-      <c r="D123" s="2">
+      <c r="E123" s="2">
         <v>0.23470522803114571</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>300</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>-48</v>
       </c>
-      <c r="G123" s="2">
+      <c r="H123" s="2">
         <v>-0.13793103448275862</v>
       </c>
     </row>
